--- a/data/cleaned_data/2016_NC.xlsx
+++ b/data/cleaned_data/2016_NC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
   <si>
     <t>Year</t>
   </si>
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>YANCEY</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Burlington, NC</t>
@@ -857,8 +860,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>15</v>
+      <c r="C2" t="s">
+        <v>108</v>
       </c>
       <c r="D2">
         <v>2042</v>
@@ -870,10 +873,10 @@
         <v>160283</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -883,8 +886,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>4</v>
+      <c r="C3" t="s">
+        <v>108</v>
       </c>
       <c r="D3">
         <v>211</v>
@@ -896,10 +899,10 @@
         <v>37133</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -909,8 +912,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>108</v>
       </c>
       <c r="D4">
         <v>95</v>
@@ -929,8 +932,8 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>108</v>
       </c>
       <c r="D5">
         <v>403</v>
@@ -942,10 +945,10 @@
         <v>25165</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -955,8 +958,8 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>8</v>
+      <c r="C6" t="s">
+        <v>108</v>
       </c>
       <c r="D6">
         <v>196</v>
@@ -975,8 +978,8 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>108</v>
       </c>
       <c r="D7">
         <v>133</v>
@@ -995,8 +998,8 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>6</v>
+      <c r="C8" t="s">
+        <v>108</v>
       </c>
       <c r="D8">
         <v>508</v>
@@ -1008,10 +1011,10 @@
         <v>47369</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1021,8 +1024,8 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>7</v>
+      <c r="C9" t="s">
+        <v>108</v>
       </c>
       <c r="D9">
         <v>265</v>
@@ -1041,8 +1044,8 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>16</v>
+      <c r="C10" t="s">
+        <v>108</v>
       </c>
       <c r="D10">
         <v>426</v>
@@ -1061,8 +1064,8 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>16</v>
+      <c r="C11" t="s">
+        <v>108</v>
       </c>
       <c r="D11">
         <v>1051</v>
@@ -1074,10 +1077,10 @@
         <v>126304</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1087,8 +1090,8 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>23</v>
+      <c r="C12" t="s">
+        <v>108</v>
       </c>
       <c r="D12">
         <v>2812</v>
@@ -1100,10 +1103,10 @@
         <v>254955</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1113,8 +1116,8 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>17</v>
+      <c r="C13" t="s">
+        <v>108</v>
       </c>
       <c r="D13">
         <v>935</v>
@@ -1126,10 +1129,10 @@
         <v>89451</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1139,8 +1142,8 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
-        <v>21</v>
+      <c r="C14" t="s">
+        <v>108</v>
       </c>
       <c r="D14">
         <v>2673</v>
@@ -1152,10 +1155,10 @@
         <v>201639</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1165,8 +1168,8 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>10</v>
+      <c r="C15" t="s">
+        <v>108</v>
       </c>
       <c r="D15">
         <v>870</v>
@@ -1178,10 +1181,10 @@
         <v>81766</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1191,8 +1194,8 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>108</v>
       </c>
       <c r="D16">
         <v>80</v>
@@ -1204,10 +1207,10 @@
         <v>10397</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1217,8 +1220,8 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
-        <v>9</v>
+      <c r="C17" t="s">
+        <v>108</v>
       </c>
       <c r="D17">
         <v>551</v>
@@ -1230,10 +1233,10 @@
         <v>68808</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1243,8 +1246,8 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
-        <v>8</v>
+      <c r="C18" t="s">
+        <v>108</v>
       </c>
       <c r="D18">
         <v>264</v>
@@ -1263,8 +1266,8 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>18</v>
+      <c r="C19" t="s">
+        <v>108</v>
       </c>
       <c r="D19">
         <v>1997</v>
@@ -1276,10 +1279,10 @@
         <v>156448</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1289,8 +1292,8 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
-        <v>15</v>
+      <c r="C20" t="s">
+        <v>108</v>
       </c>
       <c r="D20">
         <v>564</v>
@@ -1302,10 +1305,10 @@
         <v>69642</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1315,8 +1318,8 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
-        <v>5</v>
+      <c r="C21" t="s">
+        <v>108</v>
       </c>
       <c r="D21">
         <v>220</v>
@@ -1335,8 +1338,8 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22">
-        <v>2</v>
+      <c r="C22" t="s">
+        <v>108</v>
       </c>
       <c r="D22">
         <v>105</v>
@@ -1355,8 +1358,8 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="C23" t="s">
+        <v>108</v>
       </c>
       <c r="D23">
         <v>80</v>
@@ -1375,8 +1378,8 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
-        <v>33</v>
+      <c r="C24" t="s">
+        <v>108</v>
       </c>
       <c r="D24">
         <v>1232</v>
@@ -1388,10 +1391,10 @@
         <v>96960</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1401,8 +1404,8 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25">
-        <v>25</v>
+      <c r="C25" t="s">
+        <v>108</v>
       </c>
       <c r="D25">
         <v>1060</v>
@@ -1421,8 +1424,8 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
-        <v>19</v>
+      <c r="C26" t="s">
+        <v>108</v>
       </c>
       <c r="D26">
         <v>1183</v>
@@ -1434,10 +1437,10 @@
         <v>102632</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1447,8 +1450,8 @@
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
-        <v>45</v>
+      <c r="C27" t="s">
+        <v>108</v>
       </c>
       <c r="D27">
         <v>4247</v>
@@ -1460,10 +1463,10 @@
         <v>333167</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1473,8 +1476,8 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28">
-        <v>9</v>
+      <c r="C28" t="s">
+        <v>108</v>
       </c>
       <c r="D28">
         <v>187</v>
@@ -1486,10 +1489,10 @@
         <v>25640</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1499,8 +1502,8 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29">
-        <v>3</v>
+      <c r="C29" t="s">
+        <v>108</v>
       </c>
       <c r="D29">
         <v>299</v>
@@ -1512,10 +1515,10 @@
         <v>35829</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1525,8 +1528,8 @@
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
-        <v>34</v>
+      <c r="C30" t="s">
+        <v>108</v>
       </c>
       <c r="D30">
         <v>1826</v>
@@ -1538,10 +1541,10 @@
         <v>164270</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1551,8 +1554,8 @@
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31">
-        <v>8</v>
+      <c r="C31" t="s">
+        <v>108</v>
       </c>
       <c r="D31">
         <v>388</v>
@@ -1564,10 +1567,10 @@
         <v>41921</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1577,8 +1580,8 @@
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32">
-        <v>8</v>
+      <c r="C32" t="s">
+        <v>108</v>
       </c>
       <c r="D32">
         <v>738</v>
@@ -1597,8 +1600,8 @@
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33">
-        <v>22</v>
+      <c r="C33" t="s">
+        <v>108</v>
       </c>
       <c r="D33">
         <v>4036</v>
@@ -1610,10 +1613,10 @@
         <v>307826</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1623,8 +1626,8 @@
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C34">
-        <v>7</v>
+      <c r="C34" t="s">
+        <v>108</v>
       </c>
       <c r="D34">
         <v>786</v>
@@ -1636,10 +1639,10 @@
         <v>53283</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1649,8 +1652,8 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35">
-        <v>42</v>
+      <c r="C35" t="s">
+        <v>108</v>
       </c>
       <c r="D35">
         <v>4401</v>
@@ -1662,10 +1665,10 @@
         <v>371260</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1675,8 +1678,8 @@
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36">
-        <v>18</v>
+      <c r="C36" t="s">
+        <v>108</v>
       </c>
       <c r="D36">
         <v>653</v>
@@ -1688,10 +1691,10 @@
         <v>64676</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1701,8 +1704,8 @@
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C37">
-        <v>29</v>
+      <c r="C37" t="s">
+        <v>108</v>
       </c>
       <c r="D37">
         <v>3324</v>
@@ -1714,10 +1717,10 @@
         <v>216622</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1727,8 +1730,8 @@
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="C38">
-        <v>3</v>
+      <c r="C38" t="s">
+        <v>108</v>
       </c>
       <c r="D38">
         <v>128</v>
@@ -1740,10 +1743,10 @@
         <v>11569</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1753,8 +1756,8 @@
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39">
-        <v>5</v>
+      <c r="C39" t="s">
+        <v>108</v>
       </c>
       <c r="D39">
         <v>131</v>
@@ -1773,8 +1776,8 @@
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40">
-        <v>11</v>
+      <c r="C40" t="s">
+        <v>108</v>
       </c>
       <c r="D40">
         <v>712</v>
@@ -1786,10 +1789,10 @@
         <v>58684</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1799,8 +1802,8 @@
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41">
-        <v>1</v>
+      <c r="C41" t="s">
+        <v>108</v>
       </c>
       <c r="D41">
         <v>258</v>
@@ -1819,8 +1822,8 @@
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42">
-        <v>59</v>
+      <c r="C42" t="s">
+        <v>108</v>
       </c>
       <c r="D42">
         <v>8881</v>
@@ -1832,10 +1835,10 @@
         <v>524265</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1845,8 +1848,8 @@
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C43">
-        <v>10</v>
+      <c r="C43" t="s">
+        <v>108</v>
       </c>
       <c r="D43">
         <v>806</v>
@@ -1858,10 +1861,10 @@
         <v>51815</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1871,8 +1874,8 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44">
-        <v>22</v>
+      <c r="C44" t="s">
+        <v>108</v>
       </c>
       <c r="D44">
         <v>1208</v>
@@ -1884,10 +1887,10 @@
         <v>130674</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1897,8 +1900,8 @@
       <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C45">
-        <v>14</v>
+      <c r="C45" t="s">
+        <v>108</v>
       </c>
       <c r="D45">
         <v>625</v>
@@ -1910,10 +1913,10 @@
         <v>60405</v>
       </c>
       <c r="G45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1923,8 +1926,8 @@
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C46">
-        <v>14</v>
+      <c r="C46" t="s">
+        <v>108</v>
       </c>
       <c r="D46">
         <v>1069</v>
@@ -1936,10 +1939,10 @@
         <v>113583</v>
       </c>
       <c r="G46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1949,8 +1952,8 @@
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47">
-        <v>7</v>
+      <c r="C47" t="s">
+        <v>108</v>
       </c>
       <c r="D47">
         <v>290</v>
@@ -1969,8 +1972,8 @@
       <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="C48">
-        <v>15</v>
+      <c r="C48" t="s">
+        <v>108</v>
       </c>
       <c r="D48">
         <v>554</v>
@@ -1982,10 +1985,10 @@
         <v>52981</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1995,8 +1998,8 @@
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" t="s">
+        <v>108</v>
       </c>
       <c r="D49">
         <v>24</v>
@@ -2015,8 +2018,8 @@
       <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="C50">
-        <v>22</v>
+      <c r="C50" t="s">
+        <v>108</v>
       </c>
       <c r="D50">
         <v>2298</v>
@@ -2028,10 +2031,10 @@
         <v>172466</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2041,8 +2044,8 @@
       <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C51">
-        <v>9</v>
+      <c r="C51" t="s">
+        <v>108</v>
       </c>
       <c r="D51">
         <v>391</v>
@@ -2054,10 +2057,10 @@
         <v>42622</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2067,8 +2070,8 @@
       <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="C52">
-        <v>33</v>
+      <c r="C52" t="s">
+        <v>108</v>
       </c>
       <c r="D52">
         <v>2251</v>
@@ -2080,10 +2083,10 @@
         <v>190843</v>
       </c>
       <c r="G52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2093,8 +2096,8 @@
       <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53">
-        <v>3</v>
+      <c r="C53" t="s">
+        <v>108</v>
       </c>
       <c r="D53">
         <v>128</v>
@@ -2106,10 +2109,10 @@
         <v>9588</v>
       </c>
       <c r="G53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2119,8 +2122,8 @@
       <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="C54">
-        <v>7</v>
+      <c r="C54" t="s">
+        <v>108</v>
       </c>
       <c r="D54">
         <v>818</v>
@@ -2132,10 +2135,10 @@
         <v>59646</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2145,8 +2148,8 @@
       <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="C55">
-        <v>10</v>
+      <c r="C55" t="s">
+        <v>108</v>
       </c>
       <c r="D55">
         <v>876</v>
@@ -2158,10 +2161,10 @@
         <v>57240</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2171,8 +2174,8 @@
       <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="C56">
-        <v>15</v>
+      <c r="C56" t="s">
+        <v>108</v>
       </c>
       <c r="D56">
         <v>756</v>
@@ -2184,10 +2187,10 @@
         <v>81229</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2197,8 +2200,8 @@
       <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="C57">
-        <v>8</v>
+      <c r="C57" t="s">
+        <v>108</v>
       </c>
       <c r="D57">
         <v>348</v>
@@ -2217,8 +2220,8 @@
       <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="C58">
-        <v>2</v>
+      <c r="C58" t="s">
+        <v>108</v>
       </c>
       <c r="D58">
         <v>96</v>
@@ -2230,10 +2233,10 @@
         <v>21367</v>
       </c>
       <c r="G58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2243,8 +2246,8 @@
       <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="C59">
-        <v>9</v>
+      <c r="C59" t="s">
+        <v>108</v>
       </c>
       <c r="D59">
         <v>335</v>
@@ -2263,8 +2266,8 @@
       <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="C60">
-        <v>8</v>
+      <c r="C60" t="s">
+        <v>108</v>
       </c>
       <c r="D60">
         <v>464</v>
@@ -2276,10 +2279,10 @@
         <v>44866</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2289,8 +2292,8 @@
       <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="C61">
-        <v>102</v>
+      <c r="C61" t="s">
+        <v>108</v>
       </c>
       <c r="D61">
         <v>21096</v>
@@ -2302,10 +2305,10 @@
         <v>1056901</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2315,8 +2318,8 @@
       <c r="B62" t="s">
         <v>68</v>
       </c>
-      <c r="C62">
-        <v>2</v>
+      <c r="C62" t="s">
+        <v>108</v>
       </c>
       <c r="D62">
         <v>149</v>
@@ -2335,8 +2338,8 @@
       <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="C63">
-        <v>7</v>
+      <c r="C63" t="s">
+        <v>108</v>
       </c>
       <c r="D63">
         <v>229</v>
@@ -2355,8 +2358,8 @@
       <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="C64">
-        <v>18</v>
+      <c r="C64" t="s">
+        <v>108</v>
       </c>
       <c r="D64">
         <v>939</v>
@@ -2368,10 +2371,10 @@
         <v>95405</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2381,8 +2384,8 @@
       <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="C65">
-        <v>27</v>
+      <c r="C65" t="s">
+        <v>108</v>
       </c>
       <c r="D65">
         <v>1344</v>
@@ -2394,10 +2397,10 @@
         <v>93953</v>
       </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2407,8 +2410,8 @@
       <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="C66">
-        <v>18</v>
+      <c r="C66" t="s">
+        <v>108</v>
       </c>
       <c r="D66">
         <v>2413</v>
@@ -2420,10 +2423,10 @@
         <v>224809</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2433,8 +2436,8 @@
       <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="C67">
-        <v>2</v>
+      <c r="C67" t="s">
+        <v>108</v>
       </c>
       <c r="D67">
         <v>215</v>
@@ -2446,10 +2449,10 @@
         <v>20127</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2459,8 +2462,8 @@
       <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C68">
-        <v>21</v>
+      <c r="C68" t="s">
+        <v>108</v>
       </c>
       <c r="D68">
         <v>1829</v>
@@ -2472,10 +2475,10 @@
         <v>192314</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2485,8 +2488,8 @@
       <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="C69">
-        <v>11</v>
+      <c r="C69" t="s">
+        <v>108</v>
       </c>
       <c r="D69">
         <v>1236</v>
@@ -2498,10 +2501,10 @@
         <v>142800</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2511,8 +2514,8 @@
       <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="C70">
-        <v>3</v>
+      <c r="C70" t="s">
+        <v>108</v>
       </c>
       <c r="D70">
         <v>98</v>
@@ -2524,10 +2527,10 @@
         <v>12765</v>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2537,8 +2540,8 @@
       <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="C71">
-        <v>5</v>
+      <c r="C71" t="s">
+        <v>108</v>
       </c>
       <c r="D71">
         <v>389</v>
@@ -2550,10 +2553,10 @@
         <v>39392</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2563,8 +2566,8 @@
       <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="C72">
-        <v>17</v>
+      <c r="C72" t="s">
+        <v>108</v>
       </c>
       <c r="D72">
         <v>687</v>
@@ -2576,10 +2579,10 @@
         <v>58771</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2589,8 +2592,8 @@
       <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="C73">
-        <v>1</v>
+      <c r="C73" t="s">
+        <v>108</v>
       </c>
       <c r="D73">
         <v>60</v>
@@ -2602,10 +2605,10 @@
         <v>13402</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2615,8 +2618,8 @@
       <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="C74">
-        <v>3</v>
+      <c r="C74" t="s">
+        <v>108</v>
       </c>
       <c r="D74">
         <v>420</v>
@@ -2628,10 +2631,10 @@
         <v>39270</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2641,8 +2644,8 @@
       <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="C75">
-        <v>23</v>
+      <c r="C75" t="s">
+        <v>108</v>
       </c>
       <c r="D75">
         <v>2974</v>
@@ -2654,10 +2657,10 @@
         <v>177171</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2667,8 +2670,8 @@
       <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C76">
-        <v>2</v>
+      <c r="C76" t="s">
+        <v>108</v>
       </c>
       <c r="D76">
         <v>157</v>
@@ -2687,8 +2690,8 @@
       <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="C77">
-        <v>22</v>
+      <c r="C77" t="s">
+        <v>108</v>
       </c>
       <c r="D77">
         <v>1694</v>
@@ -2700,10 +2703,10 @@
         <v>143062</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2713,8 +2716,8 @@
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="C78">
-        <v>17</v>
+      <c r="C78" t="s">
+        <v>108</v>
       </c>
       <c r="D78">
         <v>746</v>
@@ -2726,10 +2729,10 @@
         <v>45012</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2739,8 +2742,8 @@
       <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="C79">
-        <v>37</v>
+      <c r="C79" t="s">
+        <v>108</v>
       </c>
       <c r="D79">
         <v>2351</v>
@@ -2752,10 +2755,10 @@
         <v>133383</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2765,8 +2768,8 @@
       <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="C80">
-        <v>20</v>
+      <c r="C80" t="s">
+        <v>108</v>
       </c>
       <c r="D80">
         <v>985</v>
@@ -2778,10 +2781,10 @@
         <v>91308</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2791,8 +2794,8 @@
       <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="C81">
-        <v>19</v>
+      <c r="C81" t="s">
+        <v>108</v>
       </c>
       <c r="D81">
         <v>1720</v>
@@ -2804,10 +2807,10 @@
         <v>139410</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2817,8 +2820,8 @@
       <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="C82">
-        <v>5</v>
+      <c r="C82" t="s">
+        <v>108</v>
       </c>
       <c r="D82">
         <v>711</v>
@@ -2830,10 +2833,10 @@
         <v>66286</v>
       </c>
       <c r="G82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2843,8 +2846,8 @@
       <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="C83">
-        <v>23</v>
+      <c r="C83" t="s">
+        <v>108</v>
       </c>
       <c r="D83">
         <v>957</v>
@@ -2863,8 +2866,8 @@
       <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="C84">
-        <v>5</v>
+      <c r="C84" t="s">
+        <v>108</v>
       </c>
       <c r="D84">
         <v>556</v>
@@ -2876,10 +2879,10 @@
         <v>35309</v>
       </c>
       <c r="G84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2889,8 +2892,8 @@
       <c r="B85" t="s">
         <v>91</v>
       </c>
-      <c r="C85">
-        <v>13</v>
+      <c r="C85" t="s">
+        <v>108</v>
       </c>
       <c r="D85">
         <v>577</v>
@@ -2902,10 +2905,10 @@
         <v>60826</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2915,8 +2918,8 @@
       <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="C86">
-        <v>9</v>
+      <c r="C86" t="s">
+        <v>108</v>
       </c>
       <c r="D86">
         <v>392</v>
@@ -2928,10 +2931,10 @@
         <v>45920</v>
       </c>
       <c r="G86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2941,8 +2944,8 @@
       <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="C87">
-        <v>16</v>
+      <c r="C87" t="s">
+        <v>108</v>
       </c>
       <c r="D87">
         <v>848</v>
@@ -2954,10 +2957,10 @@
         <v>72008</v>
       </c>
       <c r="G87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2967,8 +2970,8 @@
       <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="C88">
-        <v>2</v>
+      <c r="C88" t="s">
+        <v>108</v>
       </c>
       <c r="D88">
         <v>100</v>
@@ -2980,10 +2983,10 @@
         <v>14190</v>
       </c>
       <c r="G88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2993,8 +2996,8 @@
       <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="C89">
-        <v>1</v>
+      <c r="C89" t="s">
+        <v>108</v>
       </c>
       <c r="D89">
         <v>275</v>
@@ -3006,10 +3009,10 @@
         <v>33393</v>
       </c>
       <c r="G89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3019,8 +3022,8 @@
       <c r="B90" t="s">
         <v>96</v>
       </c>
-      <c r="C90">
-        <v>0</v>
+      <c r="C90" t="s">
+        <v>108</v>
       </c>
       <c r="D90">
         <v>41</v>
@@ -3039,8 +3042,8 @@
       <c r="B91" t="s">
         <v>97</v>
       </c>
-      <c r="C91">
-        <v>27</v>
+      <c r="C91" t="s">
+        <v>108</v>
       </c>
       <c r="D91">
         <v>2377</v>
@@ -3052,10 +3055,10 @@
         <v>226279</v>
       </c>
       <c r="G91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H91" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3065,8 +3068,8 @@
       <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="C92">
-        <v>9</v>
+      <c r="C92" t="s">
+        <v>108</v>
       </c>
       <c r="D92">
         <v>814</v>
@@ -3078,10 +3081,10 @@
         <v>44485</v>
       </c>
       <c r="G92" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H92" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3091,8 +3094,8 @@
       <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="C93">
-        <v>79</v>
+      <c r="C93" t="s">
+        <v>108</v>
       </c>
       <c r="D93">
         <v>13020</v>
@@ -3104,10 +3107,10 @@
         <v>1048335</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3117,8 +3120,8 @@
       <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="C94">
-        <v>10</v>
+      <c r="C94" t="s">
+        <v>108</v>
       </c>
       <c r="D94">
         <v>250</v>
@@ -3137,8 +3140,8 @@
       <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="C95">
-        <v>3</v>
+      <c r="C95" t="s">
+        <v>108</v>
       </c>
       <c r="D95">
         <v>112</v>
@@ -3157,8 +3160,8 @@
       <c r="B96" t="s">
         <v>102</v>
       </c>
-      <c r="C96">
-        <v>5</v>
+      <c r="C96" t="s">
+        <v>108</v>
       </c>
       <c r="D96">
         <v>507</v>
@@ -3170,10 +3173,10 @@
         <v>54140</v>
       </c>
       <c r="G96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3183,8 +3186,8 @@
       <c r="B97" t="s">
         <v>103</v>
       </c>
-      <c r="C97">
-        <v>22</v>
+      <c r="C97" t="s">
+        <v>108</v>
       </c>
       <c r="D97">
         <v>1773</v>
@@ -3196,10 +3199,10 @@
         <v>124269</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H97" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3209,8 +3212,8 @@
       <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="C98">
-        <v>10</v>
+      <c r="C98" t="s">
+        <v>108</v>
       </c>
       <c r="D98">
         <v>720</v>
@@ -3222,10 +3225,10 @@
         <v>68581</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3235,8 +3238,8 @@
       <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="C99">
-        <v>18</v>
+      <c r="C99" t="s">
+        <v>108</v>
       </c>
       <c r="D99">
         <v>1064</v>
@@ -3248,10 +3251,10 @@
         <v>81307</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3261,8 +3264,8 @@
       <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="C100">
-        <v>8</v>
+      <c r="C100" t="s">
+        <v>108</v>
       </c>
       <c r="D100">
         <v>338</v>
@@ -3274,10 +3277,10 @@
         <v>37653</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3287,8 +3290,8 @@
       <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="C101">
-        <v>4</v>
+      <c r="C101" t="s">
+        <v>108</v>
       </c>
       <c r="D101">
         <v>127</v>

--- a/data/cleaned_data/2016_NC.xlsx
+++ b/data/cleaned_data/2016_NC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="376">
   <si>
     <t>Year</t>
   </si>
@@ -340,7 +340,685 @@
     <t>YANCEY</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>2,042</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1,051</t>
+  </si>
+  <si>
+    <t>2,812</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>2,673</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>1,997</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>1,232</t>
+  </si>
+  <si>
+    <t>1,060</t>
+  </si>
+  <si>
+    <t>1,183</t>
+  </si>
+  <si>
+    <t>4,247</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>1,826</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>4,036</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>4,401</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>3,324</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>8,881</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>1,208</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>1,069</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>2,298</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>2,251</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>21,096</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>1,344</t>
+  </si>
+  <si>
+    <t>2,413</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>1,829</t>
+  </si>
+  <si>
+    <t>1,236</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>2,974</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>1,694</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>2,351</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>1,720</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2,377</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>13,020</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>1,773</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>1,064</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>4,087</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>2,630</t>
+  </si>
+  <si>
+    <t>7,318</t>
+  </si>
+  <si>
+    <t>1,918</t>
+  </si>
+  <si>
+    <t>5,885</t>
+  </si>
+  <si>
+    <t>1,759</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>1,331</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>4,955</t>
+  </si>
+  <si>
+    <t>1,495</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>2,640</t>
+  </si>
+  <si>
+    <t>1,823</t>
+  </si>
+  <si>
+    <t>2,140</t>
+  </si>
+  <si>
+    <t>8,631</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>3,648</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>1,653</t>
+  </si>
+  <si>
+    <t>10,199</t>
+  </si>
+  <si>
+    <t>1,299</t>
+  </si>
+  <si>
+    <t>9,917</t>
+  </si>
+  <si>
+    <t>1,216</t>
+  </si>
+  <si>
+    <t>5,997</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>1,301</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>14,931</t>
+  </si>
+  <si>
+    <t>1,504</t>
+  </si>
+  <si>
+    <t>2,196</t>
+  </si>
+  <si>
+    <t>1,104</t>
+  </si>
+  <si>
+    <t>2,650</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>4,354</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>4,408</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>1,514</t>
+  </si>
+  <si>
+    <t>1,556</t>
+  </si>
+  <si>
+    <t>1,615</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>1,111</t>
+  </si>
+  <si>
+    <t>37,348</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>2,098</t>
+  </si>
+  <si>
+    <t>2,447</t>
+  </si>
+  <si>
+    <t>5,758</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>4,039</t>
+  </si>
+  <si>
+    <t>2,795</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>1,549</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>5,929</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>3,424</t>
+  </si>
+  <si>
+    <t>1,134</t>
+  </si>
+  <si>
+    <t>3,576</t>
+  </si>
+  <si>
+    <t>2,081</t>
+  </si>
+  <si>
+    <t>3,454</t>
+  </si>
+  <si>
+    <t>1,355</t>
+  </si>
+  <si>
+    <t>1,812</t>
+  </si>
+  <si>
+    <t>1,348</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>1,606</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>5,294</t>
+  </si>
+  <si>
+    <t>1,463</t>
+  </si>
+  <si>
+    <t>31,026</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>1,316</t>
+  </si>
+  <si>
+    <t>3,105</t>
+  </si>
+  <si>
+    <t>1,258</t>
+  </si>
+  <si>
+    <t>2,259</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>260</t>
   </si>
   <si>
     <t>Burlington, NC</t>
@@ -863,20 +1541,20 @@
       <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="D2">
-        <v>2042</v>
-      </c>
-      <c r="E2">
-        <v>4087</v>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
       </c>
       <c r="F2">
         <v>160283</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -887,22 +1565,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3">
-        <v>211</v>
-      </c>
-      <c r="E3">
-        <v>518</v>
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>239</v>
       </c>
       <c r="F3">
         <v>37133</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -913,13 +1591,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4">
-        <v>95</v>
-      </c>
-      <c r="E4">
-        <v>218</v>
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>240</v>
       </c>
       <c r="F4">
         <v>10919</v>
@@ -933,22 +1611,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5">
-        <v>403</v>
-      </c>
-      <c r="E5">
-        <v>718</v>
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>241</v>
       </c>
       <c r="F5">
         <v>25165</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -959,13 +1637,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6">
-        <v>196</v>
-      </c>
-      <c r="E6">
-        <v>511</v>
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>242</v>
       </c>
       <c r="F6">
         <v>26600</v>
@@ -979,13 +1657,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7">
-        <v>133</v>
-      </c>
-      <c r="E7">
-        <v>316</v>
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>243</v>
       </c>
       <c r="F7">
         <v>17442</v>
@@ -999,22 +1677,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8">
-        <v>508</v>
-      </c>
-      <c r="E8">
-        <v>929</v>
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>244</v>
       </c>
       <c r="F8">
         <v>47369</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1025,13 +1703,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9">
-        <v>265</v>
-      </c>
-      <c r="E9">
-        <v>472</v>
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>245</v>
       </c>
       <c r="F9">
         <v>19423</v>
@@ -1045,13 +1723,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10">
-        <v>426</v>
-      </c>
-      <c r="E10">
-        <v>889</v>
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>246</v>
       </c>
       <c r="F10">
         <v>33638</v>
@@ -1065,22 +1743,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11">
-        <v>1051</v>
-      </c>
-      <c r="E11">
-        <v>2630</v>
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>247</v>
       </c>
       <c r="F11">
         <v>126304</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1091,22 +1769,22 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12">
-        <v>2812</v>
-      </c>
-      <c r="E12">
-        <v>7318</v>
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" t="s">
+        <v>248</v>
       </c>
       <c r="F12">
         <v>254955</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1117,22 +1795,22 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13">
-        <v>935</v>
-      </c>
-      <c r="E13">
-        <v>1918</v>
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>249</v>
       </c>
       <c r="F13">
         <v>89451</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1143,22 +1821,22 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14">
-        <v>2673</v>
-      </c>
-      <c r="E14">
-        <v>5885</v>
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
       </c>
       <c r="F14">
         <v>201639</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1169,22 +1847,22 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15">
-        <v>870</v>
-      </c>
-      <c r="E15">
-        <v>1759</v>
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>251</v>
       </c>
       <c r="F15">
         <v>81766</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1195,22 +1873,22 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <v>164</v>
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>252</v>
       </c>
       <c r="F16">
         <v>10397</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1221,22 +1899,22 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17">
-        <v>551</v>
-      </c>
-      <c r="E17">
-        <v>1331</v>
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>253</v>
       </c>
       <c r="F17">
         <v>68808</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1247,13 +1925,13 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18">
-        <v>264</v>
-      </c>
-      <c r="E18">
-        <v>458</v>
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>254</v>
       </c>
       <c r="F18">
         <v>22755</v>
@@ -1267,22 +1945,22 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19">
-        <v>1997</v>
-      </c>
-      <c r="E19">
-        <v>4955</v>
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" t="s">
+        <v>255</v>
       </c>
       <c r="F19">
         <v>156448</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1295,20 +1973,20 @@
       <c r="C20" t="s">
         <v>108</v>
       </c>
-      <c r="D20">
-        <v>564</v>
-      </c>
-      <c r="E20">
-        <v>1495</v>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>256</v>
       </c>
       <c r="F20">
         <v>69642</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1319,13 +1997,13 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21">
-        <v>220</v>
-      </c>
-      <c r="E21">
-        <v>434</v>
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>257</v>
       </c>
       <c r="F21">
         <v>27809</v>
@@ -1339,13 +2017,13 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22">
-        <v>105</v>
-      </c>
-      <c r="E22">
-        <v>233</v>
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="s">
+        <v>258</v>
       </c>
       <c r="F22">
         <v>14201</v>
@@ -1359,13 +2037,13 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23">
-        <v>80</v>
-      </c>
-      <c r="E23">
-        <v>215</v>
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" t="s">
+        <v>203</v>
       </c>
       <c r="F23">
         <v>10749</v>
@@ -1379,22 +2057,22 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24">
-        <v>1232</v>
-      </c>
-      <c r="E24">
-        <v>2640</v>
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
+        <v>259</v>
       </c>
       <c r="F24">
         <v>96960</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>344</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1405,13 +2083,13 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25">
-        <v>1060</v>
-      </c>
-      <c r="E25">
-        <v>1823</v>
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>260</v>
       </c>
       <c r="F25">
         <v>56292</v>
@@ -1425,22 +2103,22 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26">
-        <v>1183</v>
-      </c>
-      <c r="E26">
-        <v>2140</v>
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>261</v>
       </c>
       <c r="F26">
         <v>102632</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1451,22 +2129,22 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27">
-        <v>4247</v>
-      </c>
-      <c r="E27">
-        <v>8631</v>
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" t="s">
+        <v>262</v>
       </c>
       <c r="F27">
         <v>333167</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1477,22 +2155,22 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28">
-        <v>187</v>
-      </c>
-      <c r="E28">
-        <v>402</v>
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>263</v>
       </c>
       <c r="F28">
         <v>25640</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1503,22 +2181,22 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29">
-        <v>299</v>
-      </c>
-      <c r="E29">
-        <v>684</v>
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" t="s">
+        <v>264</v>
       </c>
       <c r="F29">
         <v>35829</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1529,22 +2207,22 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30">
-        <v>1826</v>
-      </c>
-      <c r="E30">
-        <v>3648</v>
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" t="s">
+        <v>265</v>
       </c>
       <c r="F30">
         <v>164270</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1555,22 +2233,22 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31">
-        <v>388</v>
-      </c>
-      <c r="E31">
-        <v>788</v>
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s">
+        <v>266</v>
       </c>
       <c r="F31">
         <v>41921</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1581,13 +2259,13 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32">
-        <v>738</v>
-      </c>
-      <c r="E32">
-        <v>1653</v>
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" t="s">
+        <v>267</v>
       </c>
       <c r="F32">
         <v>59275</v>
@@ -1601,22 +2279,22 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33">
-        <v>4036</v>
-      </c>
-      <c r="E33">
-        <v>10199</v>
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" t="s">
+        <v>268</v>
       </c>
       <c r="F33">
         <v>307826</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1627,22 +2305,22 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34">
-        <v>786</v>
-      </c>
-      <c r="E34">
-        <v>1299</v>
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" t="s">
+        <v>269</v>
       </c>
       <c r="F34">
         <v>53283</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1653,22 +2331,22 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35">
-        <v>4401</v>
-      </c>
-      <c r="E35">
-        <v>9917</v>
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" t="s">
+        <v>270</v>
       </c>
       <c r="F35">
         <v>371260</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1679,22 +2357,22 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36">
-        <v>653</v>
-      </c>
-      <c r="E36">
-        <v>1216</v>
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" t="s">
+        <v>271</v>
       </c>
       <c r="F36">
         <v>64676</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1705,22 +2383,22 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37">
-        <v>3324</v>
-      </c>
-      <c r="E37">
-        <v>5997</v>
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
+        <v>272</v>
       </c>
       <c r="F37">
         <v>216622</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1731,22 +2409,22 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38">
-        <v>128</v>
-      </c>
-      <c r="E38">
-        <v>247</v>
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" t="s">
+        <v>273</v>
       </c>
       <c r="F38">
         <v>11569</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1757,13 +2435,13 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39">
-        <v>131</v>
-      </c>
-      <c r="E39">
-        <v>158</v>
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>274</v>
       </c>
       <c r="F39">
         <v>8531</v>
@@ -1777,22 +2455,22 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40">
-        <v>712</v>
-      </c>
-      <c r="E40">
-        <v>1301</v>
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" t="s">
+        <v>275</v>
       </c>
       <c r="F40">
         <v>58684</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1803,13 +2481,13 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41">
-        <v>258</v>
-      </c>
-      <c r="E41">
-        <v>497</v>
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>276</v>
       </c>
       <c r="F41">
         <v>21078</v>
@@ -1823,22 +2501,22 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42">
-        <v>8881</v>
-      </c>
-      <c r="E42">
-        <v>14931</v>
+        <v>133</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s">
+        <v>277</v>
       </c>
       <c r="F42">
         <v>524265</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1849,22 +2527,22 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43">
-        <v>806</v>
-      </c>
-      <c r="E43">
-        <v>1504</v>
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>278</v>
       </c>
       <c r="F43">
         <v>51815</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1875,22 +2553,22 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44">
-        <v>1208</v>
-      </c>
-      <c r="E44">
-        <v>2196</v>
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s">
+        <v>279</v>
       </c>
       <c r="F44">
         <v>130674</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1903,20 +2581,20 @@
       <c r="C45" t="s">
         <v>108</v>
       </c>
-      <c r="D45">
-        <v>625</v>
-      </c>
-      <c r="E45">
-        <v>1104</v>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" t="s">
+        <v>280</v>
       </c>
       <c r="F45">
         <v>60405</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1929,20 +2607,20 @@
       <c r="C46" t="s">
         <v>108</v>
       </c>
-      <c r="D46">
-        <v>1069</v>
-      </c>
-      <c r="E46">
-        <v>2650</v>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>281</v>
       </c>
       <c r="F46">
         <v>113583</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1953,13 +2631,13 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47">
-        <v>290</v>
-      </c>
-      <c r="E47">
-        <v>485</v>
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" t="s">
+        <v>282</v>
       </c>
       <c r="F47">
         <v>24209</v>
@@ -1975,20 +2653,20 @@
       <c r="C48" t="s">
         <v>108</v>
       </c>
-      <c r="D48">
-        <v>554</v>
-      </c>
-      <c r="E48">
-        <v>933</v>
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
+        <v>283</v>
       </c>
       <c r="F48">
         <v>52981</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1999,13 +2677,13 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49">
-        <v>24</v>
-      </c>
-      <c r="E49">
-        <v>88</v>
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" t="s">
+        <v>284</v>
       </c>
       <c r="F49">
         <v>5434</v>
@@ -2019,22 +2697,22 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50">
-        <v>2298</v>
-      </c>
-      <c r="E50">
-        <v>4354</v>
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>285</v>
       </c>
       <c r="F50">
         <v>172466</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2045,22 +2723,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51">
-        <v>391</v>
-      </c>
-      <c r="E51">
-        <v>763</v>
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" t="s">
+        <v>286</v>
       </c>
       <c r="F51">
         <v>42622</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2071,22 +2749,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52">
-        <v>2251</v>
-      </c>
-      <c r="E52">
-        <v>4408</v>
+        <v>134</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" t="s">
+        <v>287</v>
       </c>
       <c r="F52">
         <v>190843</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2097,22 +2775,22 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53">
-        <v>128</v>
-      </c>
-      <c r="E53">
-        <v>325</v>
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" t="s">
+        <v>288</v>
       </c>
       <c r="F53">
         <v>9588</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2123,22 +2801,22 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54">
-        <v>818</v>
-      </c>
-      <c r="E54">
-        <v>1514</v>
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" t="s">
+        <v>289</v>
       </c>
       <c r="F54">
         <v>59646</v>
       </c>
       <c r="G54" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="H54" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2149,22 +2827,22 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55">
-        <v>876</v>
-      </c>
-      <c r="E55">
-        <v>1556</v>
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" t="s">
+        <v>290</v>
       </c>
       <c r="F55">
         <v>57240</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="H55" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2175,22 +2853,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56">
-        <v>756</v>
-      </c>
-      <c r="E56">
-        <v>1615</v>
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" t="s">
+        <v>291</v>
       </c>
       <c r="F56">
         <v>81229</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2201,13 +2879,13 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57">
-        <v>348</v>
-      </c>
-      <c r="E57">
-        <v>728</v>
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" t="s">
+        <v>292</v>
       </c>
       <c r="F57">
         <v>34262</v>
@@ -2221,22 +2899,22 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58">
-        <v>96</v>
-      </c>
-      <c r="E58">
-        <v>301</v>
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" t="s">
+        <v>293</v>
       </c>
       <c r="F58">
         <v>21367</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2247,13 +2925,13 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59">
-        <v>335</v>
-      </c>
-      <c r="E59">
-        <v>659</v>
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" t="s">
+        <v>294</v>
       </c>
       <c r="F59">
         <v>23122</v>
@@ -2267,22 +2945,22 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60">
-        <v>464</v>
-      </c>
-      <c r="E60">
-        <v>1111</v>
+        <v>113</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" t="s">
+        <v>295</v>
       </c>
       <c r="F60">
         <v>44866</v>
       </c>
       <c r="G60" t="s">
-        <v>130</v>
+        <v>356</v>
       </c>
       <c r="H60" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2293,22 +2971,22 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61">
-        <v>21096</v>
-      </c>
-      <c r="E61">
-        <v>37348</v>
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" t="s">
+        <v>296</v>
       </c>
       <c r="F61">
         <v>1056901</v>
       </c>
       <c r="G61" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="H61" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2319,13 +2997,13 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62">
-        <v>149</v>
-      </c>
-      <c r="E62">
-        <v>209</v>
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" t="s">
+        <v>297</v>
       </c>
       <c r="F62">
         <v>14996</v>
@@ -2339,13 +3017,13 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63">
-        <v>229</v>
-      </c>
-      <c r="E63">
-        <v>595</v>
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" t="s">
+        <v>298</v>
       </c>
       <c r="F63">
         <v>27301</v>
@@ -2359,22 +3037,22 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64">
-        <v>939</v>
-      </c>
-      <c r="E64">
-        <v>2098</v>
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>299</v>
       </c>
       <c r="F64">
         <v>95405</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="H64" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2385,22 +3063,22 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65">
-        <v>1344</v>
-      </c>
-      <c r="E65">
-        <v>2447</v>
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" t="s">
+        <v>300</v>
       </c>
       <c r="F65">
         <v>93953</v>
       </c>
       <c r="G65" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="H65" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2411,22 +3089,22 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66">
-        <v>2413</v>
-      </c>
-      <c r="E66">
-        <v>5758</v>
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" t="s">
+        <v>301</v>
       </c>
       <c r="F66">
         <v>224809</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="H66" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2437,22 +3115,22 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67">
-        <v>215</v>
-      </c>
-      <c r="E67">
-        <v>466</v>
+        <v>112</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" t="s">
+        <v>302</v>
       </c>
       <c r="F67">
         <v>20127</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="H67" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2463,22 +3141,22 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68">
-        <v>1829</v>
-      </c>
-      <c r="E68">
-        <v>4039</v>
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" t="s">
+        <v>303</v>
       </c>
       <c r="F68">
         <v>192314</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2489,22 +3167,22 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69">
-        <v>1236</v>
-      </c>
-      <c r="E69">
-        <v>2795</v>
+        <v>136</v>
+      </c>
+      <c r="D69" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" t="s">
+        <v>304</v>
       </c>
       <c r="F69">
         <v>142800</v>
       </c>
       <c r="G69" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="H69" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2515,22 +3193,22 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70">
-        <v>98</v>
-      </c>
-      <c r="E70">
-        <v>209</v>
+        <v>127</v>
+      </c>
+      <c r="D70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" t="s">
+        <v>297</v>
       </c>
       <c r="F70">
         <v>12765</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="H70" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2541,22 +3219,22 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71">
-        <v>389</v>
-      </c>
-      <c r="E71">
-        <v>830</v>
+        <v>123</v>
+      </c>
+      <c r="D71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" t="s">
+        <v>305</v>
       </c>
       <c r="F71">
         <v>39392</v>
       </c>
       <c r="G71" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="H71" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2569,20 +3247,20 @@
       <c r="C72" t="s">
         <v>108</v>
       </c>
-      <c r="D72">
-        <v>687</v>
-      </c>
-      <c r="E72">
-        <v>1549</v>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" t="s">
+        <v>306</v>
       </c>
       <c r="F72">
         <v>58771</v>
       </c>
       <c r="G72" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="H72" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2593,22 +3271,22 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73">
-        <v>60</v>
-      </c>
-      <c r="E73">
-        <v>185</v>
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>307</v>
       </c>
       <c r="F73">
         <v>13402</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2619,22 +3297,22 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74">
-        <v>420</v>
-      </c>
-      <c r="E74">
-        <v>862</v>
+        <v>127</v>
+      </c>
+      <c r="D74" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" t="s">
+        <v>308</v>
       </c>
       <c r="F74">
         <v>39270</v>
       </c>
       <c r="G74" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="H74" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2645,22 +3323,22 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75">
-        <v>2974</v>
-      </c>
-      <c r="E75">
-        <v>5929</v>
+        <v>137</v>
+      </c>
+      <c r="D75" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" t="s">
+        <v>309</v>
       </c>
       <c r="F75">
         <v>177171</v>
       </c>
       <c r="G75" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="H75" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2671,13 +3349,13 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76">
-        <v>157</v>
-      </c>
-      <c r="E76">
-        <v>377</v>
+        <v>112</v>
+      </c>
+      <c r="D76" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" t="s">
+        <v>310</v>
       </c>
       <c r="F76">
         <v>20414</v>
@@ -2691,22 +3369,22 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77">
-        <v>1694</v>
-      </c>
-      <c r="E77">
-        <v>3424</v>
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" t="s">
+        <v>311</v>
       </c>
       <c r="F77">
         <v>143062</v>
       </c>
       <c r="G77" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="H77" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2717,22 +3395,22 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78">
-        <v>746</v>
-      </c>
-      <c r="E78">
-        <v>1134</v>
+        <v>138</v>
+      </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" t="s">
+        <v>312</v>
       </c>
       <c r="F78">
         <v>45012</v>
       </c>
       <c r="G78" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="H78" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2743,22 +3421,22 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79">
-        <v>2351</v>
-      </c>
-      <c r="E79">
-        <v>3576</v>
+        <v>126</v>
+      </c>
+      <c r="D79" t="s">
+        <v>215</v>
+      </c>
+      <c r="E79" t="s">
+        <v>313</v>
       </c>
       <c r="F79">
         <v>133383</v>
       </c>
       <c r="G79" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="H79" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2769,22 +3447,22 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80">
-        <v>985</v>
-      </c>
-      <c r="E80">
-        <v>2081</v>
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" t="s">
+        <v>314</v>
       </c>
       <c r="F80">
         <v>91308</v>
       </c>
       <c r="G80" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="H80" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2795,22 +3473,22 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
-      </c>
-      <c r="D81">
-        <v>1720</v>
-      </c>
-      <c r="E81">
-        <v>3454</v>
+        <v>122</v>
+      </c>
+      <c r="D81" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" t="s">
+        <v>315</v>
       </c>
       <c r="F81">
         <v>139410</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="H81" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2821,22 +3499,22 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82">
-        <v>711</v>
-      </c>
-      <c r="E82">
-        <v>1355</v>
+        <v>123</v>
+      </c>
+      <c r="D82" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" t="s">
+        <v>316</v>
       </c>
       <c r="F82">
         <v>66286</v>
       </c>
       <c r="G82" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="H82" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2847,13 +3525,13 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83">
-        <v>957</v>
-      </c>
-      <c r="E83">
-        <v>1812</v>
+        <v>118</v>
+      </c>
+      <c r="D83" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" t="s">
+        <v>317</v>
       </c>
       <c r="F83">
         <v>63225</v>
@@ -2867,22 +3545,22 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84">
-        <v>556</v>
-      </c>
-      <c r="E84">
-        <v>786</v>
+        <v>123</v>
+      </c>
+      <c r="D84" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" t="s">
+        <v>172</v>
       </c>
       <c r="F84">
         <v>35309</v>
       </c>
       <c r="G84" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="H84" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2893,22 +3571,22 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85">
-        <v>577</v>
-      </c>
-      <c r="E85">
-        <v>1348</v>
+        <v>138</v>
+      </c>
+      <c r="D85" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" t="s">
+        <v>318</v>
       </c>
       <c r="F85">
         <v>60826</v>
       </c>
       <c r="G85" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="H85" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2919,22 +3597,22 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86">
-        <v>392</v>
-      </c>
-      <c r="E86">
-        <v>915</v>
+        <v>119</v>
+      </c>
+      <c r="D86" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" t="s">
+        <v>319</v>
       </c>
       <c r="F86">
         <v>45920</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="H86" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2945,22 +3623,22 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87">
-        <v>848</v>
-      </c>
-      <c r="E87">
-        <v>1606</v>
+        <v>115</v>
+      </c>
+      <c r="D87" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87" t="s">
+        <v>320</v>
       </c>
       <c r="F87">
         <v>72008</v>
       </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="H87" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2971,22 +3649,22 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88">
-        <v>100</v>
-      </c>
-      <c r="E88">
-        <v>217</v>
+        <v>112</v>
+      </c>
+      <c r="D88" t="s">
+        <v>224</v>
+      </c>
+      <c r="E88" t="s">
+        <v>321</v>
       </c>
       <c r="F88">
         <v>14190</v>
       </c>
       <c r="G88" t="s">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="H88" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2997,22 +3675,22 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89">
-        <v>275</v>
-      </c>
-      <c r="E89">
-        <v>537</v>
+        <v>110</v>
+      </c>
+      <c r="D89" t="s">
+        <v>225</v>
+      </c>
+      <c r="E89" t="s">
+        <v>322</v>
       </c>
       <c r="F89">
         <v>33393</v>
       </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>368</v>
       </c>
       <c r="H89" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3023,13 +3701,13 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D90">
-        <v>41</v>
-      </c>
-      <c r="E90">
-        <v>135</v>
+        <v>120</v>
+      </c>
+      <c r="D90" t="s">
+        <v>226</v>
+      </c>
+      <c r="E90" t="s">
+        <v>323</v>
       </c>
       <c r="F90">
         <v>4024</v>
@@ -3043,22 +3721,22 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91">
-        <v>2377</v>
-      </c>
-      <c r="E91">
-        <v>5294</v>
+        <v>139</v>
+      </c>
+      <c r="D91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" t="s">
+        <v>324</v>
       </c>
       <c r="F91">
         <v>226279</v>
       </c>
       <c r="G91" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="H91" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3069,22 +3747,22 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92">
-        <v>814</v>
-      </c>
-      <c r="E92">
-        <v>1463</v>
+        <v>119</v>
+      </c>
+      <c r="D92" t="s">
+        <v>228</v>
+      </c>
+      <c r="E92" t="s">
+        <v>325</v>
       </c>
       <c r="F92">
         <v>44485</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="H92" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3095,22 +3773,22 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93">
-        <v>13020</v>
-      </c>
-      <c r="E93">
-        <v>31026</v>
+        <v>140</v>
+      </c>
+      <c r="D93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" t="s">
+        <v>326</v>
       </c>
       <c r="F93">
         <v>1048335</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="H93" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3121,13 +3799,13 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94">
-        <v>250</v>
-      </c>
-      <c r="E94">
-        <v>459</v>
+        <v>111</v>
+      </c>
+      <c r="D94" t="s">
+        <v>230</v>
+      </c>
+      <c r="E94" t="s">
+        <v>327</v>
       </c>
       <c r="F94">
         <v>19884</v>
@@ -3141,13 +3819,13 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95">
-        <v>112</v>
-      </c>
-      <c r="E95">
-        <v>256</v>
+        <v>127</v>
+      </c>
+      <c r="D95" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95" t="s">
+        <v>328</v>
       </c>
       <c r="F95">
         <v>12070</v>
@@ -3161,22 +3839,22 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96">
-        <v>507</v>
-      </c>
-      <c r="E96">
-        <v>1316</v>
+        <v>123</v>
+      </c>
+      <c r="D96" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" t="s">
+        <v>329</v>
       </c>
       <c r="F96">
         <v>54140</v>
       </c>
       <c r="G96" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="H96" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3187,22 +3865,22 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97">
-        <v>1773</v>
-      </c>
-      <c r="E97">
-        <v>3105</v>
+        <v>137</v>
+      </c>
+      <c r="D97" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" t="s">
+        <v>330</v>
       </c>
       <c r="F97">
         <v>124269</v>
       </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="H97" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3213,22 +3891,22 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98">
-        <v>720</v>
-      </c>
-      <c r="E98">
-        <v>1258</v>
+        <v>132</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" t="s">
+        <v>331</v>
       </c>
       <c r="F98">
         <v>68581</v>
       </c>
       <c r="G98" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="H98" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3241,20 +3919,20 @@
       <c r="C99" t="s">
         <v>108</v>
       </c>
-      <c r="D99">
-        <v>1064</v>
-      </c>
-      <c r="E99">
-        <v>2259</v>
+      <c r="D99" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" t="s">
+        <v>332</v>
       </c>
       <c r="F99">
         <v>81307</v>
       </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="H99" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3265,22 +3943,22 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100">
-        <v>338</v>
-      </c>
-      <c r="E100">
-        <v>804</v>
+        <v>111</v>
+      </c>
+      <c r="D100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" t="s">
+        <v>333</v>
       </c>
       <c r="F100">
         <v>37653</v>
       </c>
       <c r="G100" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="H100" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3291,13 +3969,13 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101">
-        <v>127</v>
-      </c>
-      <c r="E101">
-        <v>260</v>
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" t="s">
+        <v>334</v>
       </c>
       <c r="F101">
         <v>17610</v>
